--- a/Tiliwan_Cup#2/compo.xlsx
+++ b/Tiliwan_Cup#2/compo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joannes\Documents\Projects\Dofusdev\Tournaments-stats\Tiliwan_Cup#2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B46485-F84E-4265-8DFB-9D83CEB8A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B890612-8309-4CB0-A496-AB5340E4FACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,13 +557,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
